--- a/Model/Modelos-v3/resultados-v3.xlsx
+++ b/Model/Modelos-v3/resultados-v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alonso\PycharmProjects\TFG\Model\Modelos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alonso\PycharmProjects\TFG\Model\Modelos-v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FF26D4-F50C-42FF-96F7-0189C9C290FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD08FC0-1C59-4FBD-86A6-99BA7705AAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-330" yWindow="2205" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,11 +466,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H32" sqref="H2:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
